--- a/hoc/luu-code.xlsx
+++ b/hoc/luu-code.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -393,7 +393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
